--- a/Documentation/Query/Account.xlsx
+++ b/Documentation/Query/Account.xlsx
@@ -24,7 +24,127 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="49">
+  <si>
+    <t>T00-001</t>
+  </si>
+  <si>
+    <t>T00-002</t>
+  </si>
+  <si>
+    <t>T00-003</t>
+  </si>
+  <si>
+    <t>T00-004</t>
+  </si>
+  <si>
+    <t>T00-005</t>
+  </si>
+  <si>
+    <t>T00-006</t>
+  </si>
+  <si>
+    <t>T00-007</t>
+  </si>
+  <si>
+    <t>T00-008</t>
+  </si>
+  <si>
+    <t>T00-009</t>
+  </si>
+  <si>
+    <t>T00-010</t>
+  </si>
+  <si>
+    <t>T00-011</t>
+  </si>
+  <si>
+    <t>T00-012</t>
+  </si>
+  <si>
+    <t>T00-013</t>
+  </si>
+  <si>
+    <t>T00-014</t>
+  </si>
+  <si>
+    <t>T00-015</t>
+  </si>
+  <si>
+    <t>T00-016</t>
+  </si>
+  <si>
+    <t>T00-017</t>
+  </si>
+  <si>
+    <t>T00-018</t>
+  </si>
+  <si>
+    <t>Cr</t>
+  </si>
+  <si>
+    <t>Registration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hitesh </t>
+  </si>
+  <si>
+    <t>Mayank</t>
+  </si>
+  <si>
+    <t>Devesh</t>
+  </si>
+  <si>
+    <t>Ashwini</t>
+  </si>
+  <si>
+    <t>Shahbaz</t>
+  </si>
+  <si>
+    <t>Mahtab</t>
+  </si>
+  <si>
+    <t>Gaurav</t>
+  </si>
+  <si>
+    <t>Ravi</t>
+  </si>
+  <si>
+    <t>Dinesh</t>
+  </si>
+  <si>
+    <t>Shidharth</t>
+  </si>
+  <si>
+    <t>Prabin</t>
+  </si>
+  <si>
+    <t>Bharart</t>
+  </si>
+  <si>
+    <t>Raj</t>
+  </si>
+  <si>
+    <t>Neelesh</t>
+  </si>
+  <si>
+    <t>Himanshu</t>
+  </si>
+  <si>
+    <t>Anirudh</t>
+  </si>
+  <si>
+    <t>Mayur</t>
+  </si>
+  <si>
+    <t>Rohan</t>
+  </si>
+  <si>
+    <t>Deposite</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
   <si>
     <t>SR_NO</t>
   </si>
@@ -32,160 +152,25 @@
     <t>MEMBER_ID</t>
   </si>
   <si>
-    <t>DATE_OF_Payment</t>
-  </si>
-  <si>
-    <t>CR/DB</t>
-  </si>
-  <si>
-    <t>Amount</t>
-  </si>
-  <si>
-    <t>Narration</t>
-  </si>
-  <si>
-    <t>Transaction_Type</t>
-  </si>
-  <si>
-    <t>Transaction_ID</t>
-  </si>
-  <si>
-    <t>T00-001</t>
-  </si>
-  <si>
-    <t>T00-002</t>
-  </si>
-  <si>
-    <t>T00-003</t>
-  </si>
-  <si>
-    <t>T00-004</t>
-  </si>
-  <si>
-    <t>T00-005</t>
-  </si>
-  <si>
-    <t>T00-006</t>
-  </si>
-  <si>
-    <t>T00-007</t>
-  </si>
-  <si>
-    <t>T00-008</t>
-  </si>
-  <si>
-    <t>T00-009</t>
-  </si>
-  <si>
-    <t>T00-010</t>
-  </si>
-  <si>
-    <t>T00-011</t>
-  </si>
-  <si>
-    <t>T00-012</t>
-  </si>
-  <si>
-    <t>T00-013</t>
-  </si>
-  <si>
-    <t>T00-014</t>
-  </si>
-  <si>
-    <t>T00-015</t>
-  </si>
-  <si>
-    <t>T00-016</t>
-  </si>
-  <si>
-    <t>T00-017</t>
-  </si>
-  <si>
-    <t>T00-018</t>
-  </si>
-  <si>
-    <t>Cr</t>
-  </si>
-  <si>
-    <t>Registration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hitesh </t>
-  </si>
-  <si>
-    <t>Mayank</t>
-  </si>
-  <si>
-    <t>Devesh</t>
-  </si>
-  <si>
-    <t>Ashwini</t>
-  </si>
-  <si>
-    <t>Shahbaz</t>
-  </si>
-  <si>
-    <t>Mahtab</t>
-  </si>
-  <si>
-    <t>Gaurav</t>
-  </si>
-  <si>
-    <t>Ravi</t>
-  </si>
-  <si>
-    <t>Dinesh</t>
-  </si>
-  <si>
-    <t>Shidharth</t>
-  </si>
-  <si>
-    <t>Prabin</t>
-  </si>
-  <si>
-    <t>Bharart</t>
-  </si>
-  <si>
-    <t>Raj</t>
-  </si>
-  <si>
-    <t>Neelesh</t>
-  </si>
-  <si>
-    <t>Himanshu</t>
-  </si>
-  <si>
-    <t>Anirudh</t>
-  </si>
-  <si>
-    <t>Mayur</t>
-  </si>
-  <si>
-    <t>Rohan</t>
-  </si>
-  <si>
-    <t>null</t>
-  </si>
-  <si>
-    <t>Db</t>
-  </si>
-  <si>
-    <t>Book</t>
-  </si>
-  <si>
-    <t>Rent</t>
-  </si>
-  <si>
-    <t>Scrap</t>
-  </si>
-  <si>
-    <t>Disposal</t>
-  </si>
-  <si>
-    <t>Fine</t>
-  </si>
-  <si>
-    <t>Rent_Fine</t>
+    <t>PAY_DATE</t>
+  </si>
+  <si>
+    <t>CR_DEBIT</t>
+  </si>
+  <si>
+    <t>AMOUNT</t>
+  </si>
+  <si>
+    <t>NARRATION</t>
+  </si>
+  <si>
+    <t>TRANSACTION_TYPE</t>
+  </si>
+  <si>
+    <t>TRANSACTION_ID</t>
+  </si>
+  <si>
+    <t>MEMO_ID</t>
   </si>
 </sst>
 </file>
@@ -504,11 +489,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A23" sqref="A23"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -523,577 +508,565 @@
     <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="G1" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="H1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+      <c r="I1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C2" s="1">
         <v>42379</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="E2">
         <v>1000</v>
       </c>
       <c r="F2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="G2" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="I2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C3" s="1">
         <v>42384</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="E3">
         <v>1000</v>
       </c>
       <c r="F3" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="G3" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="I3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C4" s="1">
         <v>42390</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="E4">
         <v>1000</v>
       </c>
       <c r="F4" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="G4" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="H4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="I4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C5" s="1">
         <v>42391</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="E5">
         <v>1000</v>
       </c>
       <c r="F5" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="G5" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="H5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="I5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C6" s="1">
         <v>42392</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="E6">
         <v>1000</v>
       </c>
       <c r="F6" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="G6" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="H6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="I6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C7" s="1">
         <v>42393</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="E7">
         <v>1000</v>
       </c>
       <c r="F7" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="G7" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="H7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="I7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C8" s="1">
         <v>42394</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="E8">
         <v>1000</v>
       </c>
       <c r="F8" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="G8" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="H8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="I8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C9" s="1">
         <v>42395</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="E9">
         <v>1000</v>
       </c>
       <c r="F9" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="G9" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="H9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="I9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C10" s="1">
         <v>42396</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="E10">
         <v>1000</v>
       </c>
       <c r="F10" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="G10" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="H10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="I10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C11" s="1">
         <v>42397</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="E11">
         <v>1000</v>
       </c>
       <c r="F11" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="H11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="I11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C12" s="1">
         <v>42398</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="E12">
         <v>1000</v>
       </c>
       <c r="F12" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="G12" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="H12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="I12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C13" s="1">
         <v>42399</v>
       </c>
       <c r="D13" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="E13">
         <v>1000</v>
       </c>
       <c r="F13" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="G13" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="H13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="I13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C14" s="1">
         <v>42400</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="E14">
         <v>1000</v>
       </c>
       <c r="F14" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="G14" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="H14" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="I14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C15" s="1">
         <v>42401</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="E15">
         <v>1000</v>
       </c>
       <c r="F15" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="G15" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="H15" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="I15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C16" s="1">
         <v>42402</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="E16">
         <v>1000</v>
       </c>
       <c r="F16" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="G16" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="H16" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="I16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C17" s="1">
         <v>42403</v>
       </c>
       <c r="D17" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="E17">
         <v>1000</v>
       </c>
       <c r="F17" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="G17" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="H17" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="I17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C18" s="1">
         <v>42404</v>
       </c>
       <c r="D18" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="E18">
         <v>1000</v>
       </c>
       <c r="F18" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="G18" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="H18" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="I18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C19" s="1">
         <v>42405</v>
       </c>
       <c r="D19" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="E19">
         <v>1000</v>
       </c>
       <c r="F19" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="G19" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="H19" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20" t="s">
-        <v>28</v>
-      </c>
-      <c r="C20" s="1">
-        <v>42406</v>
-      </c>
-      <c r="D20" t="s">
-        <v>47</v>
-      </c>
-      <c r="E20">
-        <v>300</v>
-      </c>
-      <c r="F20" t="s">
-        <v>48</v>
-      </c>
-      <c r="G20" t="s">
-        <v>49</v>
-      </c>
-      <c r="H20" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
-        <v>30</v>
-      </c>
-      <c r="C21" s="1">
-        <v>42410</v>
-      </c>
-      <c r="D21" t="s">
-        <v>26</v>
-      </c>
-      <c r="E21">
-        <v>30</v>
-      </c>
-      <c r="F21" t="s">
-        <v>52</v>
-      </c>
-      <c r="G21" t="s">
-        <v>53</v>
-      </c>
-      <c r="H21" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22" t="s">
-        <v>28</v>
-      </c>
-      <c r="C22" s="1">
-        <v>42410</v>
-      </c>
-      <c r="D22" t="s">
-        <v>47</v>
-      </c>
-      <c r="E22">
-        <v>350</v>
-      </c>
-      <c r="F22" t="s">
-        <v>50</v>
-      </c>
-      <c r="G22" t="s">
-        <v>51</v>
-      </c>
-      <c r="H22" t="s">
-        <v>8</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="I19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C20" s="1"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C21" s="1"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C22" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
